--- a/draft.xlsx
+++ b/draft.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\django_rest_framework_test\blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A7E292-B107-45DA-B9F6-C354BB35A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D958F7-BF9F-46FF-82FF-0DAEAECE681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="915" windowWidth="12555" windowHeight="9930" firstSheet="1" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -738,6 +738,10 @@
   </si>
   <si>
     <t>executed_unity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1587,7 +1591,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1755,6 +1759,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D958F7-BF9F-46FF-82FF-0DAEAECE681D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289B8490-58DF-498D-B28B-C1DB9B49CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="12555" windowHeight="9930" firstSheet="1" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -1395,7 +1395,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1748,6 +1748,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +1763,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1790,6 +1793,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>101</v>
+      </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289B8490-58DF-498D-B28B-C1DB9B49CF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAB20F-464E-42BD-AFE4-877798938E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21615" windowHeight="11295" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -435,10 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>!set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>onopod !set 簿記2級</t>
     <rPh sb="12" eb="14">
       <t>ボキ</t>
@@ -642,10 +638,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>!moveto</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>onopod !moveto A12</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -742,6 +734,18 @@
   </si>
   <si>
     <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!subject</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>comment</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1189,198 +1193,222 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01D54D-2177-4EDE-B257-0E709723DC25}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="36.75" customWidth="1"/>
-    <col min="4" max="4" width="69.125" customWidth="1"/>
-    <col min="5" max="5" width="67.625" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="36.75" customWidth="1"/>
+    <col min="5" max="5" width="69.125" customWidth="1"/>
+    <col min="6" max="6" width="67.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="E2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1392,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06431C40-7286-4F6D-9456-C11ECEDB1A0F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1434,70 +1462,70 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -1505,62 +1533,62 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -1571,12 +1599,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1590,7 +1629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3FB08B-0070-431A-8B01-AE62C0023292}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1604,12 +1643,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1626,7 +1665,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1643,7 +1682,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1660,7 +1699,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1674,7 +1713,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1683,12 +1722,12 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1702,7 +1741,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1721,13 +1760,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1735,13 +1774,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1749,44 +1788,44 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>18</v>
@@ -1794,33 +1833,33 @@
     </row>
     <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1828,13 +1867,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
         <v>20</v>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BAB20F-464E-42BD-AFE4-877798938E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB502F-780F-4B94-B5D0-F16E90776A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21615" windowHeight="11295" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21615" windowHeight="11295" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -746,6 +746,41 @@
   </si>
   <si>
     <t>comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in, out, charge, subjectの内容がかかわってくる</t>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default "指定なし"</t>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>web未実行の1行を実行</t>
+    <rPh sb="3" eb="6">
+      <t>ミジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commands/execute_unexecute_web/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>commands/unexecute_web/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1157,7 +1192,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11800C7-61F2-4C95-9933-0319457101CF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1195,11 +1232,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01D54D-2177-4EDE-B257-0E709723DC25}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1346,6 +1383,9 @@
       <c r="E9" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -1380,7 +1420,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1397,7 +1437,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -1423,7 +1463,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1479,7 +1519,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -1627,15 +1667,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3FB08B-0070-431A-8B01-AE62C0023292}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="28.375" customWidth="1"/>
@@ -1794,24 +1834,24 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1819,33 +1859,27 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="E16" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1853,29 +1887,63 @@
         <v>99</v>
       </c>
       <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>84</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>20</v>
       </c>
     </row>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDB502F-780F-4B94-B5D0-F16E90776A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1B20C-9D75-4929-965D-F9DF225AFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21615" windowHeight="11295" activeTab="3" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -579,11 +579,6 @@
   </si>
   <si>
     <t>spawn("WASDFF")</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>curl -XPOST ${d}users/WASDF/
-curl -XPOST ${d}entries/2 -d '{"user_id": "WASDFF", "status": "start"}'</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1232,11 +1227,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01D54D-2177-4EDE-B257-0E709723DC25}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1279,9 +1274,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -1295,19 +1290,17 @@
       <c r="E4" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -1321,24 +1314,24 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
         <v>86</v>
-      </c>
-      <c r="E6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
@@ -1354,9 +1347,6 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1374,7 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
@@ -1403,7 +1393,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>44</v>
@@ -1420,7 +1410,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
@@ -1437,7 +1427,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -1502,35 +1492,35 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -1546,7 +1536,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -1584,51 +1574,51 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -1639,7 +1629,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -1669,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE3FB08B-0070-431A-8B01-AE62C0023292}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1683,12 +1673,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -1705,7 +1695,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1722,7 +1712,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1739,7 +1729,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1753,7 +1743,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1762,12 +1752,12 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1781,7 +1771,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1800,13 +1790,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1814,13 +1804,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -1828,72 +1818,72 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>18</v>
@@ -1901,33 +1891,33 @@
     </row>
     <row r="18" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
@@ -1935,13 +1925,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
         <v>20</v>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1B20C-9D75-4929-965D-F9DF225AFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E904D5-8117-48A5-A9B0-B619AEE3CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="119">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -776,6 +776,16 @@
   </si>
   <si>
     <t>commands/unexecute_web/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unity側のポーリングに使用するもの</t>
+    <rPh sb="5" eb="6">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1225,13 +1235,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01D54D-2177-4EDE-B257-0E709723DC25}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1347,6 +1357,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
@@ -1440,6 +1453,11 @@
       </c>
       <c r="E13" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/draft.xlsx
+++ b/draft.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\20240501\studyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F1B20C-9D75-4929-965D-F9DF225AFEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E4463E-0524-4399-8B7D-570A857BF702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EC313A2C-D88C-4268-B62A-D14DFB7CC92B}"/>
   </bookViews>
@@ -809,12 +809,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -834,7 +840,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +854,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1227,11 +1236,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB01D54D-2177-4EDE-B257-0E709723DC25}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1408,20 +1417,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>79</v>
       </c>
     </row>
